--- a/dataanalysis/data/predictions/1000/09170940_0942.xlsx
+++ b/dataanalysis/data/predictions/1000/09170940_0942.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="174">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-17</t>
   </si>
   <si>
@@ -533,9 +536,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -893,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,19 +1002,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.96</v>
@@ -1032,7 +1035,7 @@
         <v>21336.93</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1074,10 +1077,25 @@
         <v>-0.16</v>
       </c>
       <c r="X2" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y2">
+        <v>-6.06</v>
+      </c>
+      <c r="Z2">
+        <v>15.5</v>
+      </c>
+      <c r="AA2">
+        <v>5.08</v>
       </c>
       <c r="AC2" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1085,22 +1103,25 @@
       <c r="AG2">
         <v>1.766924023628235</v>
       </c>
-      <c r="AH2" t="s">
-        <v>173</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>9.27</v>
@@ -1118,7 +1139,7 @@
         <v>217719.24</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1160,10 +1181,25 @@
         <v>-0.57</v>
       </c>
       <c r="X3" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y3">
+        <v>1.51</v>
+      </c>
+      <c r="Z3">
+        <v>72.86</v>
+      </c>
+      <c r="AA3">
+        <v>2.71</v>
       </c>
       <c r="AC3" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1171,22 +1207,25 @@
       <c r="AG3">
         <v>2.153549194335938</v>
       </c>
-      <c r="AH3" t="s">
-        <v>173</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.91</v>
@@ -1204,7 +1243,7 @@
         <v>72004.10000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1246,10 +1285,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X4" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y4">
+        <v>-6.88</v>
+      </c>
+      <c r="Z4">
+        <v>7.59</v>
+      </c>
+      <c r="AA4">
+        <v>-2.57</v>
       </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1257,22 +1311,25 @@
       <c r="AG4">
         <v>2.888778686523438</v>
       </c>
-      <c r="AH4" t="s">
-        <v>173</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.9</v>
@@ -1290,7 +1347,7 @@
         <v>29713.14</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>15</v>
@@ -1332,10 +1389,25 @@
         <v>-0.05</v>
       </c>
       <c r="X5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y5">
+        <v>-2.36</v>
+      </c>
+      <c r="Z5">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>4.7</v>
       </c>
       <c r="AC5" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1343,22 +1415,25 @@
       <c r="AG5">
         <v>4.028792381286621</v>
       </c>
-      <c r="AH5" t="s">
-        <v>173</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300085</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1.43</v>
@@ -1376,7 +1451,7 @@
         <v>88051.53</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1418,10 +1493,25 @@
         <v>0.04</v>
       </c>
       <c r="X6" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y6">
+        <v>-8.75</v>
+      </c>
+      <c r="Z6">
+        <v>58.26</v>
+      </c>
+      <c r="AA6">
+        <v>-1.24</v>
       </c>
       <c r="AC6" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1429,22 +1519,25 @@
       <c r="AG6">
         <v>0.8946540951728821</v>
       </c>
-      <c r="AH6" t="s">
-        <v>173</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-3.45</v>
@@ -1462,7 +1555,7 @@
         <v>48896.93</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1504,10 +1597,25 @@
         <v>-0.11</v>
       </c>
       <c r="X7" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y7">
+        <v>-8.76</v>
+      </c>
+      <c r="Z7">
+        <v>25.61</v>
+      </c>
+      <c r="AA7">
+        <v>-4.72</v>
       </c>
       <c r="AC7" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1515,22 +1623,25 @@
       <c r="AG7">
         <v>5.101258277893066</v>
       </c>
-      <c r="AH7" t="s">
-        <v>173</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300209</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.83</v>
@@ -1548,7 +1659,7 @@
         <v>14756.8</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1590,10 +1701,25 @@
         <v>-0.01</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Y8">
+        <v>-4.98</v>
+      </c>
+      <c r="Z8">
+        <v>6.48</v>
+      </c>
+      <c r="AA8">
+        <v>0.93</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1601,22 +1727,25 @@
       <c r="AG8">
         <v>4.155270576477051</v>
       </c>
-      <c r="AH8" t="s">
-        <v>173</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.67</v>
@@ -1634,7 +1763,7 @@
         <v>19250.19</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -1676,10 +1805,25 @@
         <v>-0.06</v>
       </c>
       <c r="X9" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y9">
+        <v>-5.05</v>
+      </c>
+      <c r="Z9">
+        <v>3.8</v>
+      </c>
+      <c r="AA9">
+        <v>-1.04</v>
       </c>
       <c r="AC9" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1687,22 +1831,25 @@
       <c r="AG9">
         <v>1.939130067825317</v>
       </c>
-      <c r="AH9" t="s">
-        <v>173</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.11</v>
@@ -1720,7 +1867,7 @@
         <v>35667.45</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1762,10 +1909,25 @@
         <v>-0.12</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y10">
+        <v>-2.89</v>
+      </c>
+      <c r="Z10">
+        <v>16.16</v>
+      </c>
+      <c r="AA10">
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC10" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1773,22 +1935,25 @@
       <c r="AG10">
         <v>6.327892780303955</v>
       </c>
-      <c r="AH10" t="s">
-        <v>173</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-0.02</v>
@@ -1806,7 +1971,7 @@
         <v>165012.71</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1848,10 +2013,25 @@
         <v>0.01</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y11">
+        <v>1.11</v>
+      </c>
+      <c r="Z11">
+        <v>148.11</v>
+      </c>
+      <c r="AA11">
+        <v>5.58</v>
       </c>
       <c r="AC11" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1859,22 +2039,25 @@
       <c r="AG11">
         <v>5.460880279541016</v>
       </c>
-      <c r="AH11" t="s">
-        <v>173</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300290</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-0.78</v>
@@ -1892,7 +2075,7 @@
         <v>24440.42</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1934,10 +2117,25 @@
         <v>-0.1</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y12">
+        <v>-11.32</v>
+      </c>
+      <c r="Z12">
+        <v>31.44</v>
+      </c>
+      <c r="AA12">
+        <v>-0.51</v>
       </c>
       <c r="AC12" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1945,22 +2143,25 @@
       <c r="AG12">
         <v>2.019655466079712</v>
       </c>
-      <c r="AH12" t="s">
-        <v>173</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300324</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.81</v>
@@ -1978,7 +2179,7 @@
         <v>51507.61</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2020,10 +2221,25 @@
         <v>0.13</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y13">
+        <v>-4.6</v>
+      </c>
+      <c r="Z13">
+        <v>7.88</v>
+      </c>
+      <c r="AA13">
+        <v>3.28</v>
       </c>
       <c r="AC13" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2031,22 +2247,25 @@
       <c r="AG13">
         <v>3.430135726928711</v>
       </c>
-      <c r="AH13" t="s">
-        <v>173</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300331</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.59</v>
@@ -2064,7 +2283,7 @@
         <v>71270.98</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -2106,10 +2325,25 @@
         <v>-0.02</v>
       </c>
       <c r="X14" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y14">
+        <v>0.55</v>
+      </c>
+      <c r="Z14">
+        <v>42.29</v>
+      </c>
+      <c r="AA14">
+        <v>18.26</v>
       </c>
       <c r="AC14" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2117,22 +2351,25 @@
       <c r="AG14">
         <v>6.018433094024658</v>
       </c>
-      <c r="AH14" t="s">
-        <v>173</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300363</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.64</v>
@@ -2150,7 +2387,7 @@
         <v>12698.99</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2192,10 +2429,25 @@
         <v>0.04</v>
       </c>
       <c r="X15" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y15">
+        <v>-2.19</v>
+      </c>
+      <c r="Z15">
+        <v>28.24</v>
+      </c>
+      <c r="AA15">
+        <v>1.22</v>
       </c>
       <c r="AC15" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2203,22 +2455,25 @@
       <c r="AG15">
         <v>4.835859775543213</v>
       </c>
-      <c r="AH15" t="s">
-        <v>173</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300428</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-4.32</v>
@@ -2236,7 +2491,7 @@
         <v>21878.25</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2278,10 +2533,25 @@
         <v>-0.09</v>
       </c>
       <c r="X16" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y16">
+        <v>-4.53</v>
+      </c>
+      <c r="Z16">
+        <v>24.9</v>
+      </c>
+      <c r="AA16">
+        <v>0.36</v>
       </c>
       <c r="AC16" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2289,22 +2559,25 @@
       <c r="AG16">
         <v>0.9806866049766541</v>
       </c>
-      <c r="AH16" t="s">
-        <v>173</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300457</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.82</v>
@@ -2322,7 +2595,7 @@
         <v>23077.74</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17">
         <v>12</v>
@@ -2364,10 +2637,25 @@
         <v>-0.09</v>
       </c>
       <c r="X17" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y17">
+        <v>0.03</v>
+      </c>
+      <c r="Z17">
+        <v>35.88</v>
+      </c>
+      <c r="AA17">
+        <v>9.59</v>
       </c>
       <c r="AC17" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2375,22 +2663,25 @@
       <c r="AG17">
         <v>1.681686282157898</v>
       </c>
-      <c r="AH17" t="s">
-        <v>173</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300475</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.98</v>
@@ -2408,7 +2699,7 @@
         <v>76415.60000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2450,10 +2741,25 @@
         <v>0.15</v>
       </c>
       <c r="X18" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y18">
+        <v>-3.69</v>
+      </c>
+      <c r="Z18">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA18">
+        <v>3.23</v>
       </c>
       <c r="AC18" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2461,22 +2767,25 @@
       <c r="AG18">
         <v>9.742062568664551</v>
       </c>
-      <c r="AH18" t="s">
-        <v>173</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300476</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-0.4</v>
@@ -2494,7 +2803,7 @@
         <v>216342.96</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19">
         <v>71</v>
@@ -2536,10 +2845,25 @@
         <v>-0.02</v>
       </c>
       <c r="X19" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y19">
+        <v>-3.11</v>
+      </c>
+      <c r="Z19">
+        <v>339.39</v>
+      </c>
+      <c r="AA19">
+        <v>-1.8</v>
       </c>
       <c r="AC19" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2547,22 +2871,25 @@
       <c r="AG19">
         <v>-2.315610885620117</v>
       </c>
-      <c r="AH19" t="s">
-        <v>173</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300528</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-7.67</v>
@@ -2580,7 +2907,7 @@
         <v>36277.81</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2622,10 +2949,25 @@
         <v>-0.44</v>
       </c>
       <c r="X20" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y20">
+        <v>-4.85</v>
+      </c>
+      <c r="Z20">
+        <v>29.6</v>
+      </c>
+      <c r="AA20">
+        <v>5.11</v>
       </c>
       <c r="AC20" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2633,22 +2975,25 @@
       <c r="AG20">
         <v>-22.09081649780273</v>
       </c>
-      <c r="AH20" t="s">
-        <v>173</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300539</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.7</v>
@@ -2666,7 +3011,7 @@
         <v>35491.24</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -2708,10 +3053,25 @@
         <v>0.1</v>
       </c>
       <c r="X21" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y21">
+        <v>3.53</v>
+      </c>
+      <c r="Z21">
+        <v>47.58</v>
+      </c>
+      <c r="AA21">
+        <v>24.29</v>
       </c>
       <c r="AC21" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2719,22 +3079,25 @@
       <c r="AG21">
         <v>3.869918584823608</v>
       </c>
-      <c r="AH21" t="s">
-        <v>173</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.06</v>
@@ -2752,7 +3115,7 @@
         <v>28478.4</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2794,10 +3157,25 @@
         <v>0.02</v>
       </c>
       <c r="X22" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y22">
+        <v>-5.22</v>
+      </c>
+      <c r="Z22">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>8.94</v>
       </c>
       <c r="AC22" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2805,22 +3183,25 @@
       <c r="AG22">
         <v>5.032744884490967</v>
       </c>
-      <c r="AH22" t="s">
-        <v>173</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300684</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>10.49</v>
@@ -2838,7 +3219,7 @@
         <v>74471.83</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2880,10 +3261,25 @@
         <v>0.11</v>
       </c>
       <c r="X23" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y23">
+        <v>0.87</v>
+      </c>
+      <c r="Z23">
+        <v>48.48</v>
+      </c>
+      <c r="AA23">
+        <v>12.22</v>
       </c>
       <c r="AC23" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2891,22 +3287,25 @@
       <c r="AG23">
         <v>-3.043662309646606</v>
       </c>
-      <c r="AH23" t="s">
-        <v>173</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300727</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3</v>
@@ -2924,7 +3323,7 @@
         <v>13573.87</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K24">
         <v>24</v>
@@ -2966,10 +3365,25 @@
         <v>-0.02</v>
       </c>
       <c r="X24" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y24">
+        <v>0.57</v>
+      </c>
+      <c r="Z24">
+        <v>45.13</v>
+      </c>
+      <c r="AA24">
+        <v>-0.27</v>
       </c>
       <c r="AC24" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2977,22 +3391,25 @@
       <c r="AG24">
         <v>1.620259881019592</v>
       </c>
-      <c r="AH24" t="s">
-        <v>173</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300803</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.5600000000000001</v>
@@ -3010,7 +3427,7 @@
         <v>123295.76</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25">
         <v>27</v>
@@ -3052,10 +3469,25 @@
         <v>-0.12</v>
       </c>
       <c r="X25" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y25">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="Z25">
+        <v>169.13</v>
+      </c>
+      <c r="AA25">
+        <v>7.84</v>
       </c>
       <c r="AC25" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3063,22 +3495,25 @@
       <c r="AG25">
         <v>4.871142387390137</v>
       </c>
-      <c r="AH25" t="s">
-        <v>173</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300814</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0.58</v>
@@ -3096,7 +3531,7 @@
         <v>14281.36</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3138,10 +3573,25 @@
         <v>0.09</v>
       </c>
       <c r="X26" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y26">
+        <v>-2.41</v>
+      </c>
+      <c r="Z26">
+        <v>51.66</v>
+      </c>
+      <c r="AA26">
+        <v>-0.65</v>
       </c>
       <c r="AC26" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3149,22 +3599,25 @@
       <c r="AG26">
         <v>4.165675163269043</v>
       </c>
-      <c r="AH26" t="s">
-        <v>173</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300852</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.09</v>
@@ -3182,7 +3635,7 @@
         <v>15776.94</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3224,10 +3677,25 @@
         <v>-0.01</v>
       </c>
       <c r="X27" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y27">
+        <v>-5.17</v>
+      </c>
+      <c r="Z27">
+        <v>48.19</v>
+      </c>
+      <c r="AA27">
+        <v>6.01</v>
       </c>
       <c r="AC27" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3235,22 +3703,25 @@
       <c r="AG27">
         <v>2.109190940856934</v>
       </c>
-      <c r="AH27" t="s">
-        <v>173</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300857</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.83</v>
@@ -3268,7 +3739,7 @@
         <v>74342.42</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28">
         <v>19</v>
@@ -3310,10 +3781,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X28" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y28">
+        <v>-2.74</v>
+      </c>
+      <c r="Z28">
+        <v>170</v>
+      </c>
+      <c r="AA28">
+        <v>7.39</v>
       </c>
       <c r="AC28" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3321,22 +3807,25 @@
       <c r="AG28">
         <v>3.245804309844971</v>
       </c>
-      <c r="AH28" t="s">
-        <v>173</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300918</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-1.18</v>
@@ -3354,7 +3843,7 @@
         <v>23524.58</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3396,10 +3885,25 @@
         <v>-0.14</v>
       </c>
       <c r="X29" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y29">
+        <v>-3.43</v>
+      </c>
+      <c r="Z29">
+        <v>25.78</v>
+      </c>
+      <c r="AA29">
+        <v>-0.42</v>
       </c>
       <c r="AC29" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3407,22 +3911,25 @@
       <c r="AG29">
         <v>-1.613381385803223</v>
       </c>
-      <c r="AH29" t="s">
-        <v>173</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300953</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2.08</v>
@@ -3440,7 +3947,7 @@
         <v>57215.24</v>
       </c>
       <c r="J30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K30">
         <v>16</v>
@@ -3482,10 +3989,25 @@
         <v>0.04</v>
       </c>
       <c r="X30" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y30">
+        <v>-2.07</v>
+      </c>
+      <c r="Z30">
+        <v>185</v>
+      </c>
+      <c r="AA30">
+        <v>4.33</v>
       </c>
       <c r="AC30" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3493,22 +4015,25 @@
       <c r="AG30">
         <v>1.879299283027649</v>
       </c>
-      <c r="AH30" t="s">
-        <v>173</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300959</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>16.95</v>
@@ -3526,7 +4051,7 @@
         <v>49913.88</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3568,10 +4093,25 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="X31" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y31">
+        <v>-10.37</v>
+      </c>
+      <c r="Z31">
+        <v>81.66</v>
+      </c>
+      <c r="AA31">
+        <v>1.32</v>
       </c>
       <c r="AC31" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3579,22 +4119,25 @@
       <c r="AG31">
         <v>-1.839634656906128</v>
       </c>
-      <c r="AH31" t="s">
-        <v>173</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301076</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>2.31</v>
@@ -3612,7 +4155,7 @@
         <v>40527.3</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3654,10 +4197,25 @@
         <v>0.02</v>
       </c>
       <c r="X32" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y32">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="Z32">
+        <v>60.35</v>
+      </c>
+      <c r="AA32">
+        <v>-4.08</v>
       </c>
       <c r="AC32" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3665,22 +4223,25 @@
       <c r="AG32">
         <v>3.886203765869141</v>
       </c>
-      <c r="AH32" t="s">
-        <v>173</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301150</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-2.71</v>
@@ -3698,7 +4259,7 @@
         <v>15790.23</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <v>12</v>
@@ -3740,10 +4301,25 @@
         <v>-0.11</v>
       </c>
       <c r="X33" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y33">
+        <v>-2.19</v>
+      </c>
+      <c r="Z33">
+        <v>41.38</v>
+      </c>
+      <c r="AA33">
+        <v>2.86</v>
       </c>
       <c r="AC33" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3751,22 +4327,25 @@
       <c r="AG33">
         <v>2.372371435165405</v>
       </c>
-      <c r="AH33" t="s">
-        <v>173</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301307</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3784,7 +4363,7 @@
         <v>35764.78</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3826,10 +4405,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X34" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y34">
+        <v>4.86</v>
+      </c>
+      <c r="Z34">
+        <v>43.98</v>
+      </c>
+      <c r="AA34">
+        <v>8.92</v>
       </c>
       <c r="AC34" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3837,22 +4431,25 @@
       <c r="AG34">
         <v>3.682777404785156</v>
       </c>
-      <c r="AH34" t="s">
-        <v>173</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301377</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.53</v>
@@ -3870,7 +4467,7 @@
         <v>9519.34</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3912,10 +4509,25 @@
         <v>-0.12</v>
       </c>
       <c r="X35" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y35">
+        <v>-2.28</v>
+      </c>
+      <c r="Z35">
+        <v>86.48</v>
+      </c>
+      <c r="AA35">
+        <v>0.53</v>
       </c>
       <c r="AC35" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3923,22 +4535,25 @@
       <c r="AG35">
         <v>3.249785661697388</v>
       </c>
-      <c r="AH35" t="s">
-        <v>173</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301396</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.82</v>
@@ -3956,7 +4571,7 @@
         <v>13723.37</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3998,10 +4613,25 @@
         <v>0.11</v>
       </c>
       <c r="X36" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y36">
+        <v>-1.91</v>
+      </c>
+      <c r="Z36">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="AA36">
+        <v>2.61</v>
       </c>
       <c r="AC36" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4009,22 +4639,25 @@
       <c r="AG36">
         <v>3.821578979492188</v>
       </c>
-      <c r="AH36" t="s">
-        <v>173</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301413</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.8</v>
@@ -4042,7 +4675,7 @@
         <v>42971.04</v>
       </c>
       <c r="J37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37">
         <v>19</v>
@@ -4084,10 +4717,25 @@
         <v>0.06</v>
       </c>
       <c r="X37" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y37">
+        <v>-3.83</v>
+      </c>
+      <c r="Z37">
+        <v>196.4</v>
+      </c>
+      <c r="AA37">
+        <v>6.08</v>
       </c>
       <c r="AC37" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4095,22 +4743,25 @@
       <c r="AG37">
         <v>4.038849353790283</v>
       </c>
-      <c r="AH37" t="s">
-        <v>173</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301488</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>7.4</v>
@@ -4128,7 +4779,7 @@
         <v>60442.18</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K38">
         <v>16</v>
@@ -4170,10 +4821,25 @@
         <v>-0.33</v>
       </c>
       <c r="X38" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y38">
+        <v>-4.14</v>
+      </c>
+      <c r="Z38">
+        <v>218.5</v>
+      </c>
+      <c r="AA38">
+        <v>6.59</v>
       </c>
       <c r="AC38" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4181,22 +4847,25 @@
       <c r="AG38">
         <v>-1.049512028694153</v>
       </c>
-      <c r="AH38" t="s">
-        <v>173</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301550</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.43</v>
@@ -4214,7 +4883,7 @@
         <v>24773.59</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4256,10 +4925,25 @@
         <v>0.13</v>
       </c>
       <c r="X39" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y39">
+        <v>0.31</v>
+      </c>
+      <c r="Z39">
+        <v>141.26</v>
+      </c>
+      <c r="AA39">
+        <v>8.51</v>
       </c>
       <c r="AC39" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4267,22 +4951,25 @@
       <c r="AG39">
         <v>0.02963766269385815</v>
       </c>
-      <c r="AH39" t="s">
-        <v>173</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301600</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.36</v>
@@ -4300,7 +4987,7 @@
         <v>14299.75</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4342,10 +5029,25 @@
         <v>0.23</v>
       </c>
       <c r="X40" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y40">
+        <v>-0.95</v>
+      </c>
+      <c r="Z40">
+        <v>159.66</v>
+      </c>
+      <c r="AA40">
+        <v>3.68</v>
       </c>
       <c r="AC40" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4353,22 +5055,25 @@
       <c r="AG40">
         <v>1.846641898155212</v>
       </c>
-      <c r="AH40" t="s">
-        <v>173</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688028</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-3.45</v>
@@ -4386,7 +5091,7 @@
         <v>13361.44</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -4428,10 +5133,25 @@
         <v>-0.03</v>
       </c>
       <c r="X41" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y41">
+        <v>13.79</v>
+      </c>
+      <c r="Z41">
+        <v>48.9</v>
+      </c>
+      <c r="AA41">
+        <v>17.38</v>
       </c>
       <c r="AC41" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4439,22 +5159,25 @@
       <c r="AG41">
         <v>12.98515605926514</v>
       </c>
-      <c r="AH41" t="s">
-        <v>173</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688041</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.8</v>
@@ -4472,7 +5195,7 @@
         <v>196531.96</v>
       </c>
       <c r="J42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4514,10 +5237,25 @@
         <v>-0.03</v>
       </c>
       <c r="X42" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y42">
+        <v>0.46</v>
+      </c>
+      <c r="Z42">
+        <v>265</v>
+      </c>
+      <c r="AA42">
+        <v>9.699999999999999</v>
       </c>
       <c r="AC42" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4525,22 +5263,25 @@
       <c r="AG42">
         <v>17.82000541687012</v>
       </c>
-      <c r="AH42" t="s">
-        <v>173</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688141</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-0.54</v>
@@ -4558,7 +5299,7 @@
         <v>16352.26</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K43">
         <v>11</v>
@@ -4600,10 +5341,25 @@
         <v>-0.18</v>
       </c>
       <c r="X43" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Y43">
+        <v>3.43</v>
+      </c>
+      <c r="Z43">
+        <v>54.28</v>
+      </c>
+      <c r="AA43">
+        <v>5.42</v>
       </c>
       <c r="AC43" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4611,22 +5367,25 @@
       <c r="AG43">
         <v>-0.8668683171272278</v>
       </c>
-      <c r="AH43" t="s">
-        <v>173</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688147</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.4</v>
@@ -4644,7 +5403,7 @@
         <v>14244.2</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K44">
         <v>23</v>
@@ -4686,10 +5445,25 @@
         <v>0.38</v>
       </c>
       <c r="X44" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Y44">
+        <v>-3.65</v>
+      </c>
+      <c r="Z44">
+        <v>50.16</v>
+      </c>
+      <c r="AA44">
+        <v>2.37</v>
       </c>
       <c r="AC44" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4697,22 +5471,25 @@
       <c r="AG44">
         <v>3.335148811340332</v>
       </c>
-      <c r="AH44" t="s">
-        <v>173</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688167</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.94</v>
@@ -4730,7 +5507,7 @@
         <v>48828.63</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -4772,10 +5549,25 @@
         <v>0.34</v>
       </c>
       <c r="X45" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y45">
+        <v>1.05</v>
+      </c>
+      <c r="Z45">
+        <v>186.22</v>
+      </c>
+      <c r="AA45">
+        <v>8.58</v>
       </c>
       <c r="AC45" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4783,22 +5575,25 @@
       <c r="AG45">
         <v>3.212709903717041</v>
       </c>
-      <c r="AH45" t="s">
-        <v>173</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688195</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>2.67</v>
@@ -4816,7 +5611,7 @@
         <v>22177.87</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K46">
         <v>23</v>
@@ -4858,10 +5653,25 @@
         <v>0.09</v>
       </c>
       <c r="X46" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y46">
+        <v>4.51</v>
+      </c>
+      <c r="Z46">
+        <v>124.9</v>
+      </c>
+      <c r="AA46">
+        <v>9.67</v>
       </c>
       <c r="AC46" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4869,22 +5679,25 @@
       <c r="AG46">
         <v>5.903683185577393</v>
       </c>
-      <c r="AH46" t="s">
-        <v>173</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688205</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>10.79</v>
@@ -4902,7 +5715,7 @@
         <v>79519.82000000001</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4944,10 +5757,25 @@
         <v>0.55</v>
       </c>
       <c r="X47" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y47">
+        <v>20</v>
+      </c>
+      <c r="Z47">
+        <v>140.4</v>
+      </c>
+      <c r="AA47">
+        <v>20.01</v>
       </c>
       <c r="AC47" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4955,22 +5783,25 @@
       <c r="AG47">
         <v>-0.5576443076133728</v>
       </c>
-      <c r="AH47" t="s">
-        <v>173</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688228</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>1.54</v>
@@ -4988,7 +5819,7 @@
         <v>18982.88</v>
       </c>
       <c r="J48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -5030,10 +5861,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X48" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y48">
+        <v>-2.95</v>
+      </c>
+      <c r="Z48">
+        <v>187</v>
+      </c>
+      <c r="AA48">
+        <v>3.25</v>
       </c>
       <c r="AC48" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5041,22 +5887,25 @@
       <c r="AG48">
         <v>9.902810096740723</v>
       </c>
-      <c r="AH48" t="s">
-        <v>173</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688347</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>3.64</v>
@@ -5074,7 +5923,7 @@
         <v>47821.83</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -5116,10 +5965,25 @@
         <v>0.11</v>
       </c>
       <c r="X49" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Y49">
+        <v>2.23</v>
+      </c>
+      <c r="Z49">
+        <v>88.88</v>
+      </c>
+      <c r="AA49">
+        <v>11.52</v>
       </c>
       <c r="AC49" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5127,22 +5991,25 @@
       <c r="AG49">
         <v>4.655774116516113</v>
       </c>
-      <c r="AH49" t="s">
-        <v>173</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688388</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.87</v>
@@ -5160,7 +6027,7 @@
         <v>18298.81</v>
       </c>
       <c r="J50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K50">
         <v>12</v>
@@ -5202,10 +6069,25 @@
         <v>-0.08</v>
       </c>
       <c r="X50" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Y50">
+        <v>-3.44</v>
+      </c>
+      <c r="Z50">
+        <v>35.2</v>
+      </c>
+      <c r="AA50">
+        <v>2.92</v>
       </c>
       <c r="AC50" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5213,22 +6095,25 @@
       <c r="AG50">
         <v>5.778550624847412</v>
       </c>
-      <c r="AH50" t="s">
-        <v>173</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688411</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-1.1</v>
@@ -5246,7 +6131,7 @@
         <v>11205.43</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K51">
         <v>12</v>
@@ -5288,10 +6173,25 @@
         <v>-0.02</v>
       </c>
       <c r="X51" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y51">
+        <v>-5.43</v>
+      </c>
+      <c r="Z51">
+        <v>210.99</v>
+      </c>
+      <c r="AA51">
+        <v>2.27</v>
       </c>
       <c r="AC51" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5299,22 +6199,25 @@
       <c r="AG51">
         <v>4.93142032623291</v>
       </c>
-      <c r="AH51" t="s">
-        <v>173</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688521</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.01</v>
@@ -5332,7 +6235,7 @@
         <v>82997.46000000001</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K52">
         <v>11</v>
@@ -5374,10 +6277,25 @@
         <v>-0.12</v>
       </c>
       <c r="X52" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y52">
+        <v>1.27</v>
+      </c>
+      <c r="Z52">
+        <v>185</v>
+      </c>
+      <c r="AA52">
+        <v>4.55</v>
       </c>
       <c r="AC52" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5385,22 +6303,25 @@
       <c r="AG52">
         <v>13.91440868377686</v>
       </c>
-      <c r="AH52" t="s">
-        <v>173</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688593</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>0.66</v>
@@ -5418,7 +6339,7 @@
         <v>9852.719999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5459,8 +6380,23 @@
       <c r="W53">
         <v>0.06</v>
       </c>
+      <c r="Y53">
+        <v>5.87</v>
+      </c>
+      <c r="Z53">
+        <v>27</v>
+      </c>
+      <c r="AA53">
+        <v>10.16</v>
+      </c>
       <c r="AC53" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5468,22 +6404,25 @@
       <c r="AG53">
         <v>-5.028553485870361</v>
       </c>
-      <c r="AH53" t="s">
-        <v>173</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688766</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>4.91</v>
@@ -5501,7 +6440,7 @@
         <v>77885.89</v>
       </c>
       <c r="J54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5543,10 +6482,25 @@
         <v>-0.38</v>
       </c>
       <c r="X54" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y54">
+        <v>-2.66</v>
+      </c>
+      <c r="Z54">
+        <v>107.62</v>
+      </c>
+      <c r="AA54">
+        <v>-2.85</v>
       </c>
       <c r="AC54" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5554,22 +6508,25 @@
       <c r="AG54">
         <v>18.26290702819824</v>
       </c>
-      <c r="AH54" t="s">
-        <v>173</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688981</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>6.39</v>
@@ -5587,7 +6544,7 @@
         <v>385176.37</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5628,8 +6585,23 @@
       <c r="W55">
         <v>0.23</v>
       </c>
+      <c r="Y55">
+        <v>4.05</v>
+      </c>
+      <c r="Z55">
+        <v>127.49</v>
+      </c>
+      <c r="AA55">
+        <v>9.15</v>
+      </c>
       <c r="AC55" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5637,8 +6609,11 @@
       <c r="AG55">
         <v>9.154339790344238</v>
       </c>
-      <c r="AH55" t="s">
-        <v>173</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
